--- a/src/test/resources/test/test.xlsx
+++ b/src/test/resources/test/test.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="-30" yWindow="-30" windowWidth="8655" windowHeight="7785"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="192">
   <si>
     <t>类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -733,10 +733,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>上海市农村商业银行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> (1)规模（个）                  </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1090,11 +1086,15 @@
     <t>年销售额(万)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="10">
     <font>
       <sz val="11"/>
@@ -1427,7 +1427,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1462,7 +1462,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1676,8 +1676,8 @@
   </sheetPr>
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30:A31"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.95" customHeight="1"/>
@@ -1915,7 +1915,7 @@
         <v>158</v>
       </c>
       <c r="B17" s="38" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="C17" s="38"/>
       <c r="D17" s="38"/>
@@ -1935,40 +1935,50 @@
         <v>8</v>
       </c>
       <c r="B19" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C19" s="2">
+        <v>1</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="E19" s="2"/>
+      <c r="E19" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="20" spans="1:5" s="3" customFormat="1" ht="21" customHeight="1">
       <c r="A20" s="37"/>
       <c r="B20" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C20" s="2"/>
+        <v>165</v>
+      </c>
+      <c r="C20" s="2">
+        <v>3</v>
+      </c>
       <c r="D20" s="19"/>
       <c r="E20" s="8"/>
     </row>
     <row r="21" spans="1:5" s="3" customFormat="1" ht="21" customHeight="1">
       <c r="A21" s="37" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B21" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C21" s="2">
+        <v>5</v>
+      </c>
+      <c r="D21" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="E21" s="2"/>
+      <c r="E21" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="22" spans="1:5" s="3" customFormat="1" ht="21" customHeight="1">
       <c r="A22" s="37"/>
       <c r="B22" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>120</v>
@@ -1978,10 +1988,10 @@
     </row>
     <row r="23" spans="1:5" s="3" customFormat="1" ht="21" customHeight="1">
       <c r="A23" s="37" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C23" s="2">
         <v>1</v>
@@ -1989,7 +1999,9 @@
       <c r="D23" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="E23" s="2"/>
+      <c r="E23" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="24" spans="1:5" s="3" customFormat="1" ht="25.5" customHeight="1">
       <c r="A24" s="37"/>
@@ -2002,14 +2014,16 @@
       <c r="D24" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="E24" s="20"/>
+      <c r="E24" s="20" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="25" spans="1:5" ht="21" customHeight="1">
       <c r="A25" s="37" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C25" s="2">
         <v>5</v>
@@ -2017,18 +2031,20 @@
       <c r="D25" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="E25" s="2"/>
+      <c r="E25" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="26" spans="1:5" ht="21" customHeight="1">
       <c r="A26" s="37"/>
       <c r="B26" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C26" s="8">
         <v>25</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E26" s="9" t="s">
         <v>84</v>
@@ -2037,35 +2053,43 @@
     <row r="27" spans="1:5" ht="24.75" customHeight="1">
       <c r="A27" s="37"/>
       <c r="B27" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C27" s="9">
         <v>30000</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>177</v>
-      </c>
-      <c r="E27" s="20"/>
+        <v>176</v>
+      </c>
+      <c r="E27" s="20" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="28" spans="1:5" ht="21" customHeight="1">
       <c r="A28" s="37" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B28" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C28" s="2">
+        <v>1</v>
+      </c>
+      <c r="D28" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="C28" s="2"/>
-      <c r="D28" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="E28" s="2"/>
+      <c r="E28" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="29" spans="1:5" s="3" customFormat="1" ht="21" customHeight="1">
       <c r="A29" s="37"/>
       <c r="B29" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C29" s="2"/>
+      <c r="C29" s="2">
+        <v>32</v>
+      </c>
       <c r="D29" s="4"/>
       <c r="E29" s="2"/>
     </row>
@@ -2074,20 +2098,26 @@
         <v>130</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="C30" s="2"/>
+        <v>181</v>
+      </c>
+      <c r="C30" s="2">
+        <v>1</v>
+      </c>
       <c r="D30" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="E30" s="2"/>
+      <c r="E30" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="31" spans="1:5" ht="21" customHeight="1">
       <c r="A31" s="37"/>
       <c r="B31" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="C31" s="2"/>
+        <v>182</v>
+      </c>
+      <c r="C31" s="2">
+        <v>23</v>
+      </c>
       <c r="D31" s="4"/>
       <c r="E31" s="2"/>
     </row>
@@ -2096,18 +2126,22 @@
         <v>131</v>
       </c>
       <c r="B32" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C32" s="2">
+        <v>1</v>
+      </c>
+      <c r="D32" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="C32" s="2"/>
-      <c r="D32" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="E32" s="2"/>
+      <c r="E32" s="2">
+        <v>12</v>
+      </c>
     </row>
     <row r="33" spans="1:5" ht="21" customHeight="1">
       <c r="A33" s="37"/>
       <c r="B33" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>121</v>
@@ -2219,7 +2253,7 @@
   <sheetData>
     <row r="1" spans="1:24">
       <c r="A1" s="48" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B1" s="48"/>
       <c r="C1" s="48"/>
@@ -2238,7 +2272,7 @@
       </c>
       <c r="M1" s="16"/>
       <c r="N1" s="16" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O1" s="30"/>
       <c r="P1" s="30"/>
@@ -2267,7 +2301,7 @@
       <c r="I2" s="47"/>
       <c r="J2" s="47"/>
       <c r="K2" s="29" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L2" s="29" t="s">
         <v>129</v>
@@ -2276,7 +2310,7 @@
         <v>128</v>
       </c>
       <c r="N2" s="29" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O2" s="30"/>
       <c r="P2" s="30"/>
@@ -2318,7 +2352,7 @@
       <c r="L3" s="29"/>
       <c r="M3" s="29"/>
       <c r="N3" s="29" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O3" s="30"/>
       <c r="P3" s="30"/>
@@ -2715,7 +2749,7 @@
         <v>15</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H2" s="16" t="s">
         <v>16</v>

--- a/src/test/resources/test/test.xlsx
+++ b/src/test/resources/test/test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-30" yWindow="-30" windowWidth="8655" windowHeight="7785"/>
+    <workbookView xWindow="-30" yWindow="-30" windowWidth="8655" windowHeight="7785" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="基本信息" sheetId="3" r:id="rId1"/>
@@ -1676,8 +1676,8 @@
   </sheetPr>
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+    <sheetView topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.95" customHeight="1"/>
@@ -2230,8 +2230,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X13"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2246,7 +2246,7 @@
     <col min="8" max="8" width="15.375" customWidth="1"/>
     <col min="10" max="10" width="19.5" customWidth="1"/>
     <col min="11" max="11" width="47.125" customWidth="1"/>
-    <col min="12" max="12" width="38.375" customWidth="1"/>
+    <col min="12" max="12" width="42.625" customWidth="1"/>
     <col min="13" max="13" width="16.125" customWidth="1"/>
     <col min="14" max="14" width="48.125" customWidth="1"/>
   </cols>
@@ -3048,7 +3048,7 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/src/test/resources/test/test.xlsx
+++ b/src/test/resources/test/test.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="200">
   <si>
     <t>类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1088,6 +1088,38 @@
   </si>
   <si>
     <t>a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1331,31 +1363,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1676,8 +1708,8 @@
   </sheetPr>
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.95" customHeight="1"/>
@@ -1691,22 +1723,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="23.25" customHeight="1">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
     </row>
     <row r="2" spans="1:5" s="5" customFormat="1" ht="21" customHeight="1">
       <c r="A2" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="41" t="s">
         <v>133</v>
       </c>
-      <c r="C2" s="39"/>
+      <c r="C2" s="41"/>
       <c r="D2" s="11" t="s">
         <v>135</v>
       </c>
@@ -1718,10 +1750,10 @@
       <c r="A3" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="41" t="s">
         <v>139</v>
       </c>
-      <c r="C3" s="39"/>
+      <c r="C3" s="41"/>
       <c r="D3" s="11" t="s">
         <v>136</v>
       </c>
@@ -1733,10 +1765,10 @@
       <c r="A4" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="41" t="s">
         <v>141</v>
       </c>
-      <c r="C4" s="39"/>
+      <c r="C4" s="41"/>
       <c r="D4" s="11" t="s">
         <v>123</v>
       </c>
@@ -1748,32 +1780,32 @@
       <c r="A5" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="41" t="s">
         <v>143</v>
       </c>
-      <c r="C5" s="39"/>
-      <c r="D5" s="42" t="s">
+      <c r="C5" s="41"/>
+      <c r="D5" s="44" t="s">
         <v>144</v>
       </c>
-      <c r="E5" s="42"/>
+      <c r="E5" s="44"/>
     </row>
     <row r="6" spans="1:5" s="12" customFormat="1" ht="21" customHeight="1">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
     </row>
     <row r="7" spans="1:5" s="5" customFormat="1" ht="27">
       <c r="A7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="C7" s="38"/>
+      <c r="C7" s="43"/>
       <c r="D7" s="2" t="s">
         <v>145</v>
       </c>
@@ -1785,10 +1817,10 @@
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="38">
+      <c r="B8" s="43">
         <v>3937</v>
       </c>
-      <c r="C8" s="38"/>
+      <c r="C8" s="43"/>
       <c r="D8" s="2" t="s">
         <v>147</v>
       </c>
@@ -1800,10 +1832,10 @@
       <c r="A9" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B9" s="38">
+      <c r="B9" s="43">
         <v>5836</v>
       </c>
-      <c r="C9" s="38"/>
+      <c r="C9" s="43"/>
       <c r="D9" s="2" t="s">
         <v>149</v>
       </c>
@@ -1815,10 +1847,10 @@
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="38">
+      <c r="B10" s="43">
         <v>2034</v>
       </c>
-      <c r="C10" s="38"/>
+      <c r="C10" s="43"/>
       <c r="D10" s="2" t="s">
         <v>150</v>
       </c>
@@ -1830,10 +1862,10 @@
       <c r="A11" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="B11" s="38">
+      <c r="B11" s="43">
         <v>11</v>
       </c>
-      <c r="C11" s="38"/>
+      <c r="C11" s="43"/>
       <c r="D11" s="2" t="s">
         <v>7</v>
       </c>
@@ -1845,10 +1877,10 @@
       <c r="A12" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B12" s="38" t="s">
+      <c r="B12" s="43" t="s">
         <v>78</v>
       </c>
-      <c r="C12" s="38"/>
+      <c r="C12" s="43"/>
       <c r="D12" s="2" t="s">
         <v>7</v>
       </c>
@@ -1857,22 +1889,22 @@
       </c>
     </row>
     <row r="13" spans="1:5" s="3" customFormat="1" ht="21" customHeight="1">
-      <c r="A13" s="41" t="s">
+      <c r="A13" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="41"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
     </row>
     <row r="14" spans="1:5" s="3" customFormat="1" ht="21" customHeight="1">
       <c r="A14" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B14" s="38" t="s">
+      <c r="B14" s="43" t="s">
         <v>159</v>
       </c>
-      <c r="C14" s="38"/>
+      <c r="C14" s="43"/>
       <c r="D14" s="2" t="s">
         <v>160</v>
       </c>
@@ -1884,10 +1916,10 @@
       <c r="A15" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B15" s="38" t="s">
+      <c r="B15" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="C15" s="38"/>
+      <c r="C15" s="43"/>
       <c r="D15" s="4" t="s">
         <v>155</v>
       </c>
@@ -1899,10 +1931,10 @@
       <c r="A16" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B16" s="38" t="s">
+      <c r="B16" s="43" t="s">
         <v>162</v>
       </c>
-      <c r="C16" s="38"/>
+      <c r="C16" s="43"/>
       <c r="D16" s="2" t="s">
         <v>157</v>
       </c>
@@ -1914,24 +1946,24 @@
       <c r="A17" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B17" s="38" t="s">
+      <c r="B17" s="43" t="s">
         <v>143</v>
       </c>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
     </row>
     <row r="18" spans="1:5" s="3" customFormat="1" ht="21" customHeight="1">
-      <c r="A18" s="41" t="s">
+      <c r="A18" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="41"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
     </row>
     <row r="19" spans="1:5" s="3" customFormat="1" ht="21" customHeight="1">
-      <c r="A19" s="37" t="s">
+      <c r="A19" s="45" t="s">
         <v>8</v>
       </c>
       <c r="B19" s="4" t="s">
@@ -1948,7 +1980,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" s="3" customFormat="1" ht="21" customHeight="1">
-      <c r="A20" s="37"/>
+      <c r="A20" s="45"/>
       <c r="B20" s="4" t="s">
         <v>165</v>
       </c>
@@ -1959,7 +1991,7 @@
       <c r="E20" s="8"/>
     </row>
     <row r="21" spans="1:5" s="3" customFormat="1" ht="21" customHeight="1">
-      <c r="A21" s="37" t="s">
+      <c r="A21" s="45" t="s">
         <v>169</v>
       </c>
       <c r="B21" s="4" t="s">
@@ -1976,7 +2008,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" s="3" customFormat="1" ht="21" customHeight="1">
-      <c r="A22" s="37"/>
+      <c r="A22" s="45"/>
       <c r="B22" s="4" t="s">
         <v>168</v>
       </c>
@@ -1987,7 +2019,7 @@
       <c r="E22" s="2"/>
     </row>
     <row r="23" spans="1:5" s="3" customFormat="1" ht="21" customHeight="1">
-      <c r="A23" s="37" t="s">
+      <c r="A23" s="45" t="s">
         <v>171</v>
       </c>
       <c r="B23" s="4" t="s">
@@ -2004,7 +2036,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" s="3" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A24" s="37"/>
+      <c r="A24" s="45"/>
       <c r="B24" s="4" t="s">
         <v>80</v>
       </c>
@@ -2019,7 +2051,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" ht="21" customHeight="1">
-      <c r="A25" s="37" t="s">
+      <c r="A25" s="45" t="s">
         <v>177</v>
       </c>
       <c r="B25" s="4" t="s">
@@ -2036,7 +2068,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="21" customHeight="1">
-      <c r="A26" s="37"/>
+      <c r="A26" s="45"/>
       <c r="B26" s="7" t="s">
         <v>173</v>
       </c>
@@ -2051,7 +2083,7 @@
       </c>
     </row>
     <row r="27" spans="1:5" ht="24.75" customHeight="1">
-      <c r="A27" s="37"/>
+      <c r="A27" s="45"/>
       <c r="B27" s="7" t="s">
         <v>175</v>
       </c>
@@ -2066,7 +2098,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" ht="21" customHeight="1">
-      <c r="A28" s="37" t="s">
+      <c r="A28" s="45" t="s">
         <v>180</v>
       </c>
       <c r="B28" s="4" t="s">
@@ -2083,7 +2115,7 @@
       </c>
     </row>
     <row r="29" spans="1:5" s="3" customFormat="1" ht="21" customHeight="1">
-      <c r="A29" s="37"/>
+      <c r="A29" s="45"/>
       <c r="B29" s="4" t="s">
         <v>81</v>
       </c>
@@ -2094,7 +2126,7 @@
       <c r="E29" s="2"/>
     </row>
     <row r="30" spans="1:5" ht="21" customHeight="1">
-      <c r="A30" s="37" t="s">
+      <c r="A30" s="45" t="s">
         <v>130</v>
       </c>
       <c r="B30" s="4" t="s">
@@ -2111,7 +2143,7 @@
       </c>
     </row>
     <row r="31" spans="1:5" ht="21" customHeight="1">
-      <c r="A31" s="37"/>
+      <c r="A31" s="45"/>
       <c r="B31" s="4" t="s">
         <v>182</v>
       </c>
@@ -2122,7 +2154,7 @@
       <c r="E31" s="2"/>
     </row>
     <row r="32" spans="1:5" ht="21" customHeight="1">
-      <c r="A32" s="37" t="s">
+      <c r="A32" s="45" t="s">
         <v>131</v>
       </c>
       <c r="B32" s="4" t="s">
@@ -2139,7 +2171,7 @@
       </c>
     </row>
     <row r="33" spans="1:5" ht="21" customHeight="1">
-      <c r="A33" s="37"/>
+      <c r="A33" s="45"/>
       <c r="B33" s="4" t="s">
         <v>168</v>
       </c>
@@ -2150,49 +2182,54 @@
       <c r="E33" s="2"/>
     </row>
     <row r="34" spans="1:5" s="1" customFormat="1" ht="45" customHeight="1">
-      <c r="A34" s="43" t="s">
+      <c r="A34" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="B34" s="44" t="s">
+      <c r="B34" s="39" t="s">
         <v>113</v>
       </c>
       <c r="C34" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="D34" s="41" t="s">
+      <c r="D34" s="37" t="s">
         <v>124</v>
       </c>
-      <c r="E34" s="41"/>
+      <c r="E34" s="37"/>
     </row>
     <row r="35" spans="1:5" s="1" customFormat="1" ht="45" customHeight="1">
-      <c r="A35" s="43"/>
-      <c r="B35" s="44"/>
+      <c r="A35" s="38"/>
+      <c r="B35" s="39"/>
       <c r="C35" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="D35" s="45">
+      <c r="D35" s="40">
         <v>43840</v>
       </c>
-      <c r="E35" s="41"/>
+      <c r="E35" s="37"/>
     </row>
     <row r="36" spans="1:5" s="3" customFormat="1" ht="45" customHeight="1">
       <c r="A36" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="B36" s="41" t="s">
+      <c r="B36" s="37" t="s">
         <v>125</v>
       </c>
-      <c r="C36" s="41"/>
-      <c r="D36" s="41"/>
-      <c r="E36" s="41"/>
+      <c r="C36" s="37"/>
+      <c r="D36" s="37"/>
+      <c r="E36" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A29"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A6:E6"/>
@@ -2209,16 +2246,11 @@
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B12:C12"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="D35:E35"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2230,8 +2262,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2348,9 +2380,15 @@
       <c r="J3" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
+      <c r="K3" s="29" t="s">
+        <v>192</v>
+      </c>
+      <c r="L3" s="29" t="s">
+        <v>195</v>
+      </c>
+      <c r="M3" s="29" t="s">
+        <v>196</v>
+      </c>
       <c r="N3" s="29" t="s">
         <v>189</v>
       </c>
@@ -2394,10 +2432,14 @@
       <c r="J4" s="27" t="s">
         <v>107</v>
       </c>
-      <c r="K4" s="29"/>
+      <c r="K4" s="29" t="s">
+        <v>193</v>
+      </c>
       <c r="L4" s="29"/>
       <c r="M4" s="29"/>
-      <c r="N4" s="29"/>
+      <c r="N4" s="29" t="s">
+        <v>199</v>
+      </c>
       <c r="O4" s="30"/>
       <c r="P4" s="30"/>
       <c r="Q4" s="30"/>
@@ -2437,8 +2479,12 @@
         <v>108</v>
       </c>
       <c r="K5" s="29"/>
-      <c r="L5" s="29"/>
-      <c r="M5" s="29"/>
+      <c r="L5" s="29" t="s">
+        <v>197</v>
+      </c>
+      <c r="M5" s="29" t="s">
+        <v>198</v>
+      </c>
       <c r="N5" s="29"/>
       <c r="O5" s="30"/>
       <c r="P5" s="30"/>
@@ -2470,7 +2516,9 @@
       <c r="H6" s="28"/>
       <c r="I6" s="26"/>
       <c r="J6" s="27"/>
-      <c r="K6" s="29"/>
+      <c r="K6" s="29" t="s">
+        <v>194</v>
+      </c>
       <c r="L6" s="29"/>
       <c r="M6" s="29"/>
       <c r="N6" s="29"/>
@@ -2689,6 +2737,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2716,18 +2765,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="25.5" customHeight="1">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
     </row>
     <row r="2" spans="1:10" s="15" customFormat="1" ht="28.5" customHeight="1">
       <c r="A2" s="16" t="s">
@@ -3062,17 +3111,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="25.5" customHeight="1">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
     </row>
     <row r="2" spans="1:9" s="15" customFormat="1" ht="28.5" customHeight="1">
       <c r="A2" s="16" t="s">
